--- a/Homework1/netplan.xlsx
+++ b/Homework1/netplan.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ip</t>
+          <t>Subnet</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -436,67 +436,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10.12.18.62</t>
+          <t>10.12.186.0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10.12.142.253</t>
+          <t>91.216.121.192</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.224</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10.12.173.2</t>
+          <t>10.12.227.64</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10.12.165.253</t>
+          <t>10.12.222.64</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10.12.175.1</t>
+          <t>10.12.124.128</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10.12.17.62</t>
+          <t>10.12.214.128</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10.12.219.124</t>
+          <t>10.12.216.0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,19 +520,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10.12.123.1</t>
+          <t>10.12.18.0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10.12.111.2</t>
+          <t>10.12.96.0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,31 +544,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10.12.221.78</t>
+          <t>10.12.140.128</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>255.255.255.240</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10.12.153.1</t>
+          <t>10.12.233.20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10.12.153.241</t>
+          <t>10.12.102.0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10.12.20.62</t>
+          <t>10.12.124.0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,43 +592,43 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10.12.64.2</t>
+          <t>10.12.142.0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10.12.169.124</t>
+          <t>10.12.192.64</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10.12.142.188</t>
+          <t>192.168.214.0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10.12.204.254</t>
+          <t>10.12.172.0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,19 +640,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10.12.228.253</t>
+          <t>10.12.160.0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10.12.111.1</t>
+          <t>10.12.136.0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,31 +664,31 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10.12.101.254</t>
+          <t>10.12.161.128</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10.12.218.125</t>
+          <t>10.12.13.0</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10.12.214.189</t>
+          <t>10.12.215.0</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,67 +700,67 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10.12.162.125</t>
+          <t>10.12.192.0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>217.150.41.205</t>
+          <t>192.168.1.0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10.12.177.125</t>
+          <t>10.12.11.0</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10.12.160.125</t>
+          <t>217.117.187.0</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10.12.133.125</t>
+          <t>10.12.64.0</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>192.168.165.3</t>
+          <t>192.168.10.0</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,19 +772,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>10.12.161.124</t>
+          <t>10.12.229.128</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>10.12.68.1</t>
+          <t>10.12.86.0</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10.12.121.1</t>
+          <t>192.168.214.0</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,19 +808,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10.12.216.124</t>
+          <t>10.12.172.0</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10.12.236.125</t>
+          <t>10.12.216.64</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10.12.236.60</t>
+          <t>10.12.101.64</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,31 +844,31 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10.12.222.29</t>
+          <t>192.168.1.0</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10.12.139.2</t>
+          <t>10.12.156.0</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10.12.167.252</t>
+          <t>10.12.169.0</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10.12.18.190</t>
+          <t>10.12.142.128</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,67 +892,67 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10.12.229.125</t>
+          <t>10.12.177.0</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>10.12.165.252</t>
+          <t>10.12.232.199</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.255</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10.12.181.1</t>
+          <t>10.12.232.0</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>10.12.100.254</t>
+          <t>10.12.25.0</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>10.12.156.61</t>
+          <t>10.12.111.0</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10.1.16.199</t>
+          <t>10.12.120.128</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10.12.192.126</t>
+          <t>10.12.228.128</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10.12.11.62</t>
+          <t>10.12.217.0</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,19 +988,19 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>10.12.102.1</t>
+          <t>10.12.236.128</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>10.12.69.1</t>
+          <t>192.168.226.0</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,19 +1012,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10.12.167.124</t>
+          <t>10.12.184.0</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10.12.180.61</t>
+          <t>10.12.236.0</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>10.12.140.125</t>
+          <t>10.12.10.192</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,103 +1048,103 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>10.12.160.253</t>
+          <t>10.12.216.192</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>10.12.231.180</t>
+          <t>10.12.233.32</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.240</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>10.12.187.253</t>
+          <t>10.12.161.0</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>10.12.140.60</t>
+          <t>10.72.16.0</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.254.0</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>10.12.84.3</t>
+          <t>10.12.180.64</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10.12.168.125</t>
+          <t>91.216.121.240</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10.12.221.252</t>
+          <t>10.12.233.28</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10.12.229.252</t>
+          <t>192.168.231.0</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10.12.176.2</t>
+          <t>10.12.78.0</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10.12.219.189</t>
+          <t>10.12.120.0</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10.12.80.3</t>
+          <t>10.12.173.0</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,79 +1180,79 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10.12.194.126</t>
+          <t>10.12.148.0</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10.12.214.125</t>
+          <t>10.12.167.128</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>10.12.170.252</t>
+          <t>10.12.81.64</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>10.12.120.61</t>
+          <t>10.12.112.0</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>192.168.215.2</t>
+          <t>10.12.229.0</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>10.12.127.1</t>
+          <t>91.216.121.240</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>10.12.225.39</t>
+          <t>10.12.142.0</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>10.12.180.125</t>
+          <t>10.12.219.64</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,31 +1276,31 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>10.12.229.126</t>
+          <t>10.12.222.32</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>10.12.101.190</t>
+          <t>10.12.232.198</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.255</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>10.12.228.124</t>
+          <t>10.12.218.0</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1312,19 +1312,19 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>10.12.177.253</t>
+          <t>192.168.226.0</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>10.12.65.1</t>
+          <t>10.12.153.0</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>10.12.17.126</t>
+          <t>10.12.221.192</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1348,19 +1348,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>192.168.228.2</t>
+          <t>10.12.19.0</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>10.12.16.190</t>
+          <t>10.12.231.192</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>91.216.121.61</t>
+          <t>10.12.140.0</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>192.168.227.1</t>
+          <t>10.12.148.0</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1396,19 +1396,19 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>10.12.122.2</t>
+          <t>10.12.226.64</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>10.12.73.2</t>
+          <t>10.12.112.0</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1420,67 +1420,67 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>10.12.126.1</t>
+          <t>10.12.216.128</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>10.12.219.188</t>
+          <t>10.0.0.0</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>185.13.0.142</t>
+          <t>10.12.221.192</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>10.12.226.50</t>
+          <t>192.168.227.0</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>10.12.140.253</t>
+          <t>10.12.166.0</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>10.12.120.60</t>
+          <t>10.12.219.64</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1492,43 +1492,43 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>10.12.73.1</t>
+          <t>10.12.194.0</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>172.16.65.2</t>
+          <t>10.12.170.128</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>255.255.0.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>10.12.183.1</t>
+          <t>10.12.115.192</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>10.12.8.125</t>
+          <t>10.12.11.0</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1540,31 +1540,31 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>217.117.187.30</t>
+          <t>10.12.200.0</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>10.12.168.253</t>
+          <t>10.12.79.0</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>10.12.10.253</t>
+          <t>10.12.10.0</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1576,43 +1576,43 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>10.12.231.181</t>
+          <t>10.12.227.128</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>10.12.123.2</t>
+          <t>10.12.231.192</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>10.12.215.60</t>
+          <t>10.12.94.0</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>10.12.142.60</t>
+          <t>10.12.124.192</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1624,19 +1624,19 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>10.12.168.252</t>
+          <t>10.12.187.0</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>10.12.234.125</t>
+          <t>10.12.168.128</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1648,67 +1648,67 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>10.12.166.125</t>
+          <t>10.12.17.128</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>10.12.127.2</t>
+          <t>10.12.140.0</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>10.12.166.124</t>
+          <t>10.12.181.0</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>10.12.101.62</t>
+          <t>192.168.227.0</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>10.12.126.2</t>
+          <t>10.12.156.0</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>192.168.214.2</t>
+          <t>10.12.128.0</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1720,19 +1720,19 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>10.12.233.22</t>
+          <t>10.12.8.0</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>10.12.192.62</t>
+          <t>10.12.226.0</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1744,31 +1744,31 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>91.216.121.60</t>
+          <t>10.12.230.0</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>10.12.67.2</t>
+          <t>10.12.214.128</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>10.12.227.124</t>
+          <t>10.12.221.128</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>10.12.216.253</t>
+          <t>10.12.133.0</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1792,67 +1792,67 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>10.12.234.239</t>
+          <t>192.168.228.0</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>10.12.225.254</t>
+          <t>91.216.121.253</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.255</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>10.12.184.1</t>
+          <t>10.12.234.128</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>10.12.10.62</t>
+          <t>10.12.167.0</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>10.12.233.29</t>
+          <t>10.12.169.0</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>10.12.228.125</t>
+          <t>10.12.101.128</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1864,31 +1864,31 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>10.12.142.252</t>
+          <t>10.12.234.128</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>10.12.86.3</t>
+          <t>10.12.233.48</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.240</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>10.12.133.60</t>
+          <t>10.12.8.0</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>10.12.227.253</t>
+          <t>10.12.120.128</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1912,55 +1912,55 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>10.12.139.1</t>
+          <t>10.12.222.32</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>10.12.124.61</t>
+          <t>10.12.222.8</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>10.12.152.1</t>
+          <t>10.12.228.128</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>192.168.231.2</t>
+          <t>10.12.120.0</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>192.168.226.1</t>
+          <t>10.12.95.0</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1972,19 +1972,19 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>10.12.187.252</t>
+          <t>10.12.215.0</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>10.0.0.1</t>
+          <t>10.12.125.0</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1996,19 +1996,19 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>10.12.239.254</t>
+          <t>10.12.234.128</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>10.12.100.190</t>
+          <t>10.12.228.0</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2020,115 +2020,115 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>10.12.180.188</t>
+          <t>10.12.182.0</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>10.12.91.3</t>
+          <t>10.12.228.192</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>10.12.176.1</t>
+          <t>10.12.124.128</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>10.12.69.2</t>
+          <t>10.12.219.128</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>10.12.227.188</t>
+          <t>10.11.252.8</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>10.12.226.177</t>
+          <t>192.168.228.0</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>10.12.233.18</t>
+          <t>10.12.72.0</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>10.12.234.124</t>
+          <t>10.12.232.128</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>10.12.64.1</t>
+          <t>10.12.185.64</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>10.12.230.253</t>
+          <t>10.12.236.64</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>10.12.231.253</t>
+          <t>10.12.140.128</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2152,43 +2152,43 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>10.12.120.125</t>
+          <t>10.12.231.0</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>10.12.224.253</t>
+          <t>10.12.77.0</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>10.12.217.189</t>
+          <t>10.12.144.0</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>10.12.224.188</t>
+          <t>10.12.232.64</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2200,19 +2200,19 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>10.12.169.253</t>
+          <t>10.12.152.0</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>10.12.233.26</t>
+          <t>10.12.233.16</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2224,19 +2224,19 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>10.12.184.2</t>
+          <t>10.12.222.128</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>10.12.217.60</t>
+          <t>10.12.224.128</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2248,31 +2248,31 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>10.12.214.124</t>
+          <t>10.12.233.48</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.240</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>10.12.87.3</t>
+          <t>10.12.216.192</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>10.12.124.252</t>
+          <t>10.12.124.64</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>10.12.124.125</t>
+          <t>10.12.11.0</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2296,55 +2296,55 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>192.168.231.1</t>
+          <t>10.12.81.128</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>10.12.124.124</t>
+          <t>10.12.168.0</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>10.12.228.252</t>
+          <t>10.12.170.0</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>10.12.228.60</t>
+          <t>10.12.222.40</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>10.12.229.60</t>
+          <t>10.12.232.64</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>10.12.124.60</t>
+          <t>10.12.138.128</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>10.12.8.124</t>
+          <t>10.12.12.0</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2380,211 +2380,211 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>10.12.164.252</t>
+          <t>10.12.19.64</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>10.11.252.12</t>
+          <t>10.12.234.192</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>10.12.11.126</t>
+          <t>91.216.121.254</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.255</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>10.12.12.62</t>
+          <t>10.12.68.0</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>10.12.170.125</t>
+          <t>10.12.186.0</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>10.12.136.1</t>
+          <t>192.168.2.248</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>10.12.161.252</t>
+          <t>10.12.116.0</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>10.12.234.222</t>
+          <t>10.12.227.128</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>10.12.148.1</t>
+          <t>10.12.233.16</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>10.12.172.2</t>
+          <t>10.12.231.184</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>10.12.238.3</t>
+          <t>10.12.170.0</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>192.168.229.2</t>
+          <t>10.12.229.0</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>172.16.65.1</t>
+          <t>10.12.183.0</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>255.255.0.0</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>10.12.167.125</t>
+          <t>10.12.232.0</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>10.12.76.3</t>
+          <t>10.12.218.64</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>10.12.226.190</t>
+          <t>10.12.111.0</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>10.12.93.3</t>
+          <t>10.12.222.24</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>10.12.18.126</t>
+          <t>10.12.224.64</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>10.12.155.2</t>
+          <t>10.12.73.0</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2608,127 +2608,127 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>10.12.164.125</t>
+          <t>10.12.183.0</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>10.12.180.60</t>
+          <t>217.150.41.204</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>10.12.163.253</t>
+          <t>10.12.215.192</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>10.12.181.2</t>
+          <t>10.12.233.64</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>10.12.222.42</t>
+          <t>10.12.153.0</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>10.12.161.125</t>
+          <t>10.12.228.128</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>192.168.228.1</t>
+          <t>10.12.234.192</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>10.12.236.173</t>
+          <t>10.12.236.224</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.240</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>10.12.222.9</t>
+          <t>10.12.142.64</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>10.12.234.252</t>
+          <t>10.12.166.128</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>10.12.185.124</t>
+          <t>10.12.230.192</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2740,43 +2740,43 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>10.72.16.12</t>
+          <t>10.12.228.0</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>255.255.254.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>10.12.236.189</t>
+          <t>192.168.165.0</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>10.12.231.125</t>
+          <t>10.12.12.0</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>10.12.81.62</t>
+          <t>10.12.229.128</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>10.12.154.1</t>
+          <t>10.12.71.0</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>10.12.229.188</t>
+          <t>10.12.226.128</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2812,55 +2812,55 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>10.12.125.2</t>
+          <t>10.12.233.64</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>10.12.233.114</t>
+          <t>10.12.128.0</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>10.12.233.25</t>
+          <t>10.12.141.0</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>10.12.236.221</t>
+          <t>192.168.99.0</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>255.255.255.240</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>10.12.232.124</t>
+          <t>10.12.142.192</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2872,7 +2872,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>10.12.8.188</t>
+          <t>10.12.224.128</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2884,67 +2884,67 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>10.12.120.124</t>
+          <t>10.12.126.0</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>10.12.232.198</t>
+          <t>172.16.0.0</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>255.255.255.255</t>
+          <t>255.255.0.0</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>10.12.222.25</t>
+          <t>10.12.93.0</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>192.168.213.2</t>
+          <t>10.12.194.64</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>10.12.232.192</t>
+          <t>10.12.23.0</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>255.255.255.255</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>10.12.185.60</t>
+          <t>10.12.229.64</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -2956,7 +2956,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>10.12.144.2</t>
+          <t>10.12.127.0</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2968,79 +2968,79 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>10.12.124.188</t>
+          <t>10.12.233.24</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>10.12.171.1</t>
+          <t>10.12.215.64</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>10.11.252.9</t>
+          <t>10.12.163.128</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>10.12.226.114</t>
+          <t>10.12.184.0</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>10.12.71.2</t>
+          <t>10.12.138.192</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>10.12.13.3</t>
+          <t>10.12.101.0</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>10.12.226.45</t>
+          <t>10.12.17.192</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3052,7 +3052,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>10.12.222.188</t>
+          <t>91.216.121.0</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>10.12.219.60</t>
+          <t>10.12.140.64</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3076,7 +3076,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>10.12.232.61</t>
+          <t>10.12.224.128</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3088,19 +3088,19 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>10.12.19.126</t>
+          <t>10.12.237.0</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>10.12.234.253</t>
+          <t>10.12.8.128</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3112,19 +3112,19 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>192.168.1.252</t>
+          <t>10.12.10.128</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>10.12.214.252</t>
+          <t>10.12.226.128</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3136,31 +3136,31 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>10.12.165.124</t>
+          <t>10.12.174.0</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>91.216.121.254</t>
+          <t>10.12.133.0</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>255.255.255.255</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>10.12.219.190</t>
+          <t>10.12.225.0</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3172,19 +3172,19 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>10.12.229.189</t>
+          <t>172.16.0.0</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.0.0</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>10.12.19.62</t>
+          <t>10.12.218.64</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3196,31 +3196,31 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>10.12.162.253</t>
+          <t>10.12.236.128</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>10.12.165.125</t>
+          <t>10.12.233.24</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>10.12.79.3</t>
+          <t>10.12.69.0</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3232,19 +3232,19 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>192.168.163.3</t>
+          <t>10.12.222.24</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>10.12.142.61</t>
+          <t>10.12.120.64</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3256,43 +3256,43 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>10.12.218.254</t>
+          <t>10.12.169.128</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>10.12.102.2</t>
+          <t>10.12.214.192</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>10.12.16.254</t>
+          <t>10.12.72.0</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>10.12.115.190</t>
+          <t>10.12.124.192</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -3304,151 +3304,151 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>10.12.233.252</t>
+          <t>10.12.219.192</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>10.12.81.190</t>
+          <t>10.12.187.0</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>10.12.164.124</t>
+          <t>10.12.144.0</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>10.12.231.170</t>
+          <t>10.12.8.128</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>10.12.222.43</t>
+          <t>10.12.21.0</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>192.168.229.1</t>
+          <t>10.12.219.0</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>10.12.231.165</t>
+          <t>10.12.233.48</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.240</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>10.12.216.60</t>
+          <t>10.12.162.0</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>192.168.226.2</t>
+          <t>10.12.168.0</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>10.12.22.3</t>
+          <t>10.12.24.0</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>10.12.172.1</t>
+          <t>10.12.81.0</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>192.168.227.2</t>
+          <t>10.12.169.128</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>10.12.185.125</t>
+          <t>10.12.231.192</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -3460,91 +3460,91 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>91.216.121.241</t>
+          <t>10.12.100.128</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>10.12.229.61</t>
+          <t>10.12.102.0</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>10.12.21.3</t>
+          <t>10.12.217.192</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>10.12.166.253</t>
+          <t>10.12.222.56</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>10.12.124.253</t>
+          <t>10.12.222.48</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>10.12.222.28</t>
+          <t>10.12.18.192</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>10.11.252.11</t>
+          <t>10.12.236.64</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>192.168.1.253</t>
+          <t>10.12.114.0</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -3556,19 +3556,19 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>10.12.0.247</t>
+          <t>10.12.238.0</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>255.255.254.0</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>192.168.215.1</t>
+          <t>10.12.175.0</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -3580,55 +3580,55 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>10.12.121.2</t>
+          <t>10.12.216.64</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>10.12.194.62</t>
+          <t>10.12.164.128</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>10.12.186.1</t>
+          <t>10.12.166.128</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>91.216.121.194</t>
+          <t>10.12.67.0</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>255.255.255.224</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>10.12.144.1</t>
+          <t>10.12.111.0</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -3640,19 +3640,19 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>10.12.222.125</t>
+          <t>10.12.127.0</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>10.12.174.1</t>
+          <t>10.12.118.0</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -3664,43 +3664,43 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>10.12.218.62</t>
+          <t>10.12.170.128</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>10.12.164.253</t>
+          <t>10.12.73.0</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>10.12.24.62</t>
+          <t>10.12.181.0</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>10.12.25.3</t>
+          <t>10.12.143.0</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -3712,67 +3712,67 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>10.12.216.189</t>
+          <t>10.12.16.96</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.240</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>10.12.68.2</t>
+          <t>10.12.231.168</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>10.12.140.252</t>
+          <t>10.12.214.120</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>10.12.229.253</t>
+          <t>10.12.22.0</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>10.12.170.253</t>
+          <t>10.12.233.64</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>10.12.215.126</t>
+          <t>10.12.217.0</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -3784,79 +3784,79 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>10.12.124.189</t>
+          <t>10.12.231.160</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>172.27.71.50</t>
+          <t>10.12.220.0</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>255.255.0.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>10.12.125.1</t>
+          <t>10.12.115.128</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>10.12.162.124</t>
+          <t>10.12.10.192</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>10.12.128.1</t>
+          <t>10.12.221.128</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>10.12.72.2</t>
+          <t>10.12.163.0</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>10.12.155.1</t>
+          <t>10.12.69.0</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -3868,19 +3868,19 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>10.12.222.22</t>
+          <t>10.12.138.64</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>10.12.219.61</t>
+          <t>10.12.214.192</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -3892,7 +3892,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>10.12.228.180</t>
+          <t>10.12.17.64</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -3904,115 +3904,115 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>10.12.215.254</t>
+          <t>10.12.165.0</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>10.12.16.110</t>
+          <t>10.12.226.0</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>255.255.255.240</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>10.12.217.254</t>
+          <t>10.12.139.0</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>10.12.183.2</t>
+          <t>10.12.226.0</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>10.12.216.61</t>
+          <t>10.12.141.0</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>10.12.160.124</t>
+          <t>10.12.227.192</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>10.12.152.2</t>
+          <t>10.12.229.192</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>10.12.226.62</t>
+          <t>10.12.222.56</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>10.12.222.124</t>
+          <t>10.12.154.0</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>10.12.227.189</t>
+          <t>10.12.140.192</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -4024,31 +4024,31 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>10.12.71.1</t>
+          <t>10.12.142.192</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>10.12.111.3</t>
+          <t>10.12.231.160</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>10.12.224.124</t>
+          <t>10.12.220.0</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -4060,223 +4060,223 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>10.12.169.125</t>
+          <t>192.168.167.0</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>10.12.236.237</t>
+          <t>10.12.218.192</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>255.255.255.240</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>10.12.233.44</t>
+          <t>10.12.180.64</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>255.255.255.240</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>10.12.222.38</t>
+          <t>10.12.142.64</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>10.12.17.254</t>
+          <t>10.12.236.208</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.240</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>10.12.128.2</t>
+          <t>10.12.163.0</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>10.12.174.2</t>
+          <t>10.12.232.206</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.255</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>10.12.231.164</t>
+          <t>10.12.225.0</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>10.12.85.3</t>
+          <t>10.12.140.192</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>10.12.224.180</t>
+          <t>10.12.91.0</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>10.12.233.60</t>
+          <t>10.12.71.0</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>255.255.255.240</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>10.12.163.124</t>
+          <t>10.12.226.0</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>10.12.120.189</t>
+          <t>10.12.165.128</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>10.12.77.3</t>
+          <t>10.12.167.128</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>10.12.214.188</t>
+          <t>10.12.68.0</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>10.12.231.124</t>
+          <t>10.12.112.0</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>10.12.219.254</t>
+          <t>10.12.125.0</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>10.12.226.46</t>
+          <t>10.12.182.0</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>10.12.236.236</t>
+          <t>10.12.221.64</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -4288,79 +4288,79 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>10.12.169.252</t>
+          <t>10.12.216.128</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>10.12.233.17</t>
+          <t>10.12.233.128</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>10.12.141.2</t>
+          <t>10.12.115.0</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>10.12.148.2</t>
+          <t>185.13.0.140</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>91.216.121.195</t>
+          <t>192.168.229.0</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>255.255.255.224</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>10.12.102.3</t>
+          <t>10.12.229.192</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>10.12.227.252</t>
+          <t>10.12.185.0</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -4372,31 +4372,31 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>10.12.220.61</t>
+          <t>10.12.161.128</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>10.12.230.125</t>
+          <t>10.12.222.128</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>192.168.214.1</t>
+          <t>10.12.64.0</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -4408,19 +4408,19 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>10.12.140.188</t>
+          <t>10.12.164.0</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>10.12.112.3</t>
+          <t>10.12.119.0</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -4432,7 +4432,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>10.12.96.3</t>
+          <t>10.12.121.0</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -4444,31 +4444,31 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>10.12.231.252</t>
+          <t>10.12.233.128</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>10.12.232.60</t>
+          <t>10.12.176.0</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>10.12.232.188</t>
+          <t>10.12.18.64</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -4480,7 +4480,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>10.12.168.124</t>
+          <t>10.12.166.0</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -4492,19 +4492,19 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>10.12.233.61</t>
+          <t>10.12.222.32</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>255.255.255.240</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>10.12.115.126</t>
+          <t>10.12.228.192</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -4516,7 +4516,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>10.12.228.188</t>
+          <t>10.12.230.192</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -4528,7 +4528,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>10.12.219.125</t>
+          <t>10.12.124.64</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -4540,7 +4540,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>192.168.10.2</t>
+          <t>10.12.155.0</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -4552,7 +4552,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>10.12.217.188</t>
+          <t>10.12.185.0</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -4564,31 +4564,31 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>10.12.10.190</t>
+          <t>10.12.76.0</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>10.12.122.1</t>
+          <t>10.12.214.120</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>10.12.232.189</t>
+          <t>10.12.140.64</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -4600,31 +4600,31 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>10.12.185.61</t>
+          <t>192.168.213.0</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>10.12.236.61</t>
+          <t>192.168.215.0</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>10.12.166.252</t>
+          <t>10.12.164.0</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -4636,31 +4636,31 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>10.12.231.190</t>
+          <t>10.12.121.0</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>91.216.121.253</t>
+          <t>10.12.222.64</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>255.255.255.255</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>10.12.170.124</t>
+          <t>10.12.168.128</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -4672,19 +4672,19 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>10.12.216.252</t>
+          <t>10.12.126.0</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>10.12.95.3</t>
+          <t>10.12.136.0</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -4696,19 +4696,19 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>10.12.232.206</t>
+          <t>10.12.120.64</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>255.255.255.255</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>10.12.8.61</t>
+          <t>10.12.124.0</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -4720,19 +4720,19 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>10.12.154.2</t>
+          <t>10.12.133.64</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>10.12.120.188</t>
+          <t>10.12.228.64</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -4744,7 +4744,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>10.12.133.124</t>
+          <t>10.12.219.128</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -4756,55 +4756,55 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>10.12.160.252</t>
+          <t>10.12.154.0</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>10.12.218.190</t>
+          <t>10.12.160.0</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>10.12.114.254</t>
+          <t>10.12.162.128</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>10.12.118.254</t>
+          <t>10.12.164.128</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>10.12.119.1</t>
+          <t>10.12.65.0</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -4816,19 +4816,19 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>10.12.230.124</t>
+          <t>10.12.227.64</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>10.12.161.253</t>
+          <t>10.12.177.128</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -4840,79 +4840,79 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>10.12.233.253</t>
+          <t>91.216.121.0</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>10.12.233.30</t>
+          <t>10.12.122.0</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>10.12.142.189</t>
+          <t>10.12.173.0</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>10.12.81.126</t>
+          <t>10.12.167.0</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>10.12.228.248</t>
+          <t>10.12.239.0</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>10.12.220.60</t>
+          <t>10.12.143.0</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>10.12.142.125</t>
+          <t>10.12.231.192</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -4924,19 +4924,19 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>10.12.138.125</t>
+          <t>10.11.252.8</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>10.12.200.254</t>
+          <t>10.12.65.0</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -4948,43 +4948,43 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>10.12.23.62</t>
+          <t>10.12.87.0</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>10.12.222.54</t>
+          <t>10.12.229.64</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>10.12.115.62</t>
+          <t>10.12.122.0</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>10.12.215.61</t>
+          <t>10.12.100.192</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -4996,31 +4996,31 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>10.12.163.252</t>
+          <t>192.168.99.0</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>192.168.167.3</t>
+          <t>10.12.162.128</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>10.12.214.253</t>
+          <t>10.12.224.192</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -5032,43 +5032,43 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>10.12.186.2</t>
+          <t>10.12.232.200</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.255</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>10.12.232.125</t>
+          <t>10.12.232.192</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.255</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>10.12.231.174</t>
+          <t>10.12.224.0</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>10.12.233.125</t>
+          <t>10.12.10.64</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -5080,43 +5080,43 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>10.12.167.253</t>
+          <t>10.12.227.192</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>10.12.225.62</t>
+          <t>10.12.152.0</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>10.12.173.1</t>
+          <t>10.12.11.192</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>10.12.142.124</t>
+          <t>10.12.229.64</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -5128,19 +5128,19 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>192.168.213.1</t>
+          <t>10.12.225.0</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>192.168.99.252</t>
+          <t>10.12.155.0</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -5152,19 +5152,19 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>10.12.230.252</t>
+          <t>192.168.215.0</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>10.12.138.252</t>
+          <t>10.12.219.128</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -5176,19 +5176,19 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>185.1.13.102</t>
+          <t>10.12.161.0</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>10.12.231.240</t>
+          <t>10.12.138.192</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -5200,55 +5200,55 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>10.12.222.49</t>
+          <t>10.12.20.0</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>10.12.156.60</t>
+          <t>10.12.233.28</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>10.12.228.189</t>
+          <t>192.168.231.0</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>10.12.12.39</t>
+          <t>10.12.233.20</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.252</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>10.12.115.254</t>
+          <t>10.12.142.128</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -5260,43 +5260,43 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>10.12.222.36</t>
+          <t>10.12.180.0</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>10.12.177.252</t>
+          <t>10.12.102.0</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>10.12.221.188</t>
+          <t>10.12.231.176</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>10.12.236.188</t>
+          <t>10.1.16.192</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -5308,55 +5308,55 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>10.12.65.2</t>
+          <t>10.12.222.40</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>10.12.136.2</t>
+          <t>10.12.165.128</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>10.12.177.124</t>
+          <t>10.12.204.0</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>10.12.216.125</t>
+          <t>10.12.66.0</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>10.12.162.252</t>
+          <t>10.12.163.128</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -5368,31 +5368,31 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>91.216.121.242</t>
+          <t>10.12.165.0</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>10.12.17.190</t>
+          <t>10.12.123.0</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>10.12.180.124</t>
+          <t>10.12.225.0</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -5404,31 +5404,31 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>192.168.2.254</t>
+          <t>10.12.174.0</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>10.12.228.61</t>
+          <t>10.12.0.0</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.254.0</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>10.12.133.61</t>
+          <t>10.12.16.192</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -5440,55 +5440,55 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>10.12.233.54</t>
+          <t>10.12.216.0</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>255.255.255.240</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>10.12.222.33</t>
+          <t>10.12.66.0</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>10.12.153.2</t>
+          <t>10.12.233.32</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.240</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>10.12.140.61</t>
+          <t>10.12.123.0</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>10.12.222.62</t>
+          <t>10.12.222.16</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -5500,67 +5500,67 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>10.12.78.3</t>
+          <t>10.12.101.192</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>10.12.67.1</t>
+          <t>10.12.224.64</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>10.12.182.1</t>
+          <t>10.12.230.0</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>10.12.232.200</t>
+          <t>10.12.119.0</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>255.255.255.255</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>10.12.232.199</t>
+          <t>10.12.8.64</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>255.255.255.255</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>10.12.216.188</t>
+          <t>10.12.236.0</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -5572,55 +5572,55 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>10.12.225.38</t>
+          <t>10.12.177.128</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>10.12.222.57</t>
+          <t>10.12.176.0</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>255.255.255.248</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>10.12.225.52</t>
+          <t>10.12.231.168</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>10.12.72.1</t>
+          <t>91.216.121.192</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.224</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>10.12.221.253</t>
+          <t>10.12.228.192</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -5632,19 +5632,19 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>10.12.143.1</t>
+          <t>10.12.177.0</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>10.12.116.254</t>
+          <t>10.12.153.0</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -5656,7 +5656,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>10.12.233.124</t>
+          <t>10.12.219.0</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -5668,43 +5668,43 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>10.12.140.189</t>
+          <t>10.12.234.0</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>10.12.94.3</t>
+          <t>10.12.228.64</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>10.12.224.189</t>
+          <t>10.12.236.224</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.240</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>10.12.11.61</t>
+          <t>10.12.138.64</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -5716,19 +5716,19 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>10.12.18.254</t>
+          <t>192.168.213.0</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>10.12.226.126</t>
+          <t>10.12.217.128</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -5740,31 +5740,31 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>10.12.138.124</t>
+          <t>10.12.162.0</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>10.12.224.252</t>
+          <t>10.12.84.0</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>10.12.218.124</t>
+          <t>10.12.8.64</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -5776,7 +5776,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>10.12.10.126</t>
+          <t>10.12.226.64</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -5788,31 +5788,31 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>10.12.66.2</t>
+          <t>10.12.236.128</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>10.12.175.2</t>
+          <t>10.12.160.128</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>10.12.231.243</t>
+          <t>10.12.231.192</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -5824,7 +5824,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>10.12.141.1</t>
+          <t>185.1.13.0</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -5836,7 +5836,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>10.12.112.1</t>
+          <t>10.12.175.0</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -5848,55 +5848,55 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>10.12.138.253</t>
+          <t>192.168.163.0</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>192.168.10.1</t>
+          <t>10.12.16.128</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>10.12.119.2</t>
+          <t>10.12.224.192</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>10.12.233.45</t>
+          <t>10.12.115.64</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>255.255.255.240</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>10.12.10.252</t>
+          <t>10.12.133.64</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -5908,7 +5908,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>10.12.101.126</t>
+          <t>10.12.185.64</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -5920,55 +5920,55 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>10.12.234.237</t>
+          <t>172.27.0.0</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.0.0</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>10.12.11.60</t>
+          <t>10.12.234.0</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>10.12.222.189</t>
+          <t>10.12.80.0</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>10.12.221.189</t>
+          <t>10.12.67.0</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>10.12.224.62</t>
+          <t>10.12.17.0</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -5980,19 +5980,19 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>10.12.66.1</t>
+          <t>10.12.225.192</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>10.12.138.190</t>
+          <t>10.12.232.128</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -6004,55 +6004,55 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>10.12.236.124</t>
+          <t>192.168.10.0</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>10.12.182.2</t>
+          <t>10.12.160.128</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>10.12.163.125</t>
+          <t>10.12.18.128</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>255.255.255.128</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>10.12.112.2</t>
+          <t>10.12.231.0</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.128</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>10.12.217.61</t>
+          <t>10.12.218.128</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -6064,7 +6064,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>10.12.229.124</t>
+          <t>10.12.180.0</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -6076,19 +6076,19 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>10.12.8.189</t>
+          <t>10.12.231.176</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>10.12.143.2</t>
+          <t>10.12.171.0</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -6100,19 +6100,19 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>10.12.233.21</t>
+          <t>10.12.11.64</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>255.255.255.252</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>10.12.227.125</t>
+          <t>10.12.217.128</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -6124,43 +6124,43 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>10.12.236.220</t>
+          <t>10.12.222.48</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>255.255.255.240</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>10.12.8.60</t>
+          <t>192.168.229.0</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>10.12.224.125</t>
+          <t>10.11.252.8</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>10.12.237.3</t>
+          <t>10.12.139.0</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -6172,60 +6172,60 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>10.12.11.254</t>
+          <t>10.12.85.0</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>10.12.140.124</t>
+          <t>10.12.171.0</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.0</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>10.12.171.2</t>
+          <t>10.12.180.128</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.192</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>10.12.231.239</t>
+          <t>10.12.236.208</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>255.255.255.192</t>
+          <t>255.255.255.240</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>192.168.99.253</t>
+          <t>10.12.222.24</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>255.255.255.0</t>
+          <t>255.255.255.248</t>
         </is>
       </c>
     </row>
